--- a/Excel & CSV Sheets/2018 Data/Final Form Reports/911_Reports_for_2018-12-10_FinalForm.xlsx
+++ b/Excel & CSV Sheets/2018 Data/Final Form Reports/911_Reports_for_2018-12-10_FinalForm.xlsx
@@ -14226,7 +14226,7 @@
         <v>285</v>
       </c>
       <c r="AD89">
-        <v>0.0387</v>
+        <v>0.0397</v>
       </c>
       <c r="AE89">
         <v>0.202</v>
@@ -14375,7 +14375,7 @@
         <v>285</v>
       </c>
       <c r="AD90">
-        <v>0.0388</v>
+        <v>0.0398</v>
       </c>
       <c r="AE90">
         <v>0.2022</v>
